--- a/database/meta/tutorials_tags.xlsx
+++ b/database/meta/tutorials_tags.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\opt\gitee\TorCMS\database\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7151FB-DF64-432C-A6DA-FD0CE1A8B50E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8168C1D5-B458-4F3A-AFF4-BC2B0899C764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="60">
   <si>
     <t>k</t>
   </si>
@@ -119,6 +119,118 @@
   </si>
   <si>
     <t>World</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tkh</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>code-lang</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Programming Language</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tuto-csharp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t02</t>
+  </si>
+  <si>
+    <t>t03</t>
+  </si>
+  <si>
+    <t>t04</t>
+  </si>
+  <si>
+    <t>t05</t>
+  </si>
+  <si>
+    <t>t06</t>
+  </si>
+  <si>
+    <t>t07</t>
+  </si>
+  <si>
+    <t>t08</t>
+  </si>
+  <si>
+    <t>t09</t>
+  </si>
+  <si>
+    <t>tuto-go</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Go</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSharp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tuto-kotlin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kotlin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tuto-lua</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lua</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tuto-perl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Perl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tuto-ruby</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ruby</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tuto-rust</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rust</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tuto-scala</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scala</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tuto-swift</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Swift</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -508,7 +620,7 @@
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="13.5"/>
@@ -655,64 +767,124 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1"/>

--- a/database/meta/tutorials_tags.xlsx
+++ b/database/meta/tutorials_tags.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\opt\gitee\TorCMS\database\meta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\opt\gitee\TorCMS\database\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8168C1D5-B458-4F3A-AFF4-BC2B0899C764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB08C55-2F72-4B6E-949B-D38E93EBCF39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="k-tutorials" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="96">
   <si>
     <t>k</t>
   </si>
@@ -231,6 +231,145 @@
   </si>
   <si>
     <t>Swift</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tka</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tuto-web</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t10</t>
+  </si>
+  <si>
+    <t>t11</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t13</t>
+  </si>
+  <si>
+    <t>t14</t>
+  </si>
+  <si>
+    <t>tuto-svg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tuto-servlet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Servlet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tuto-soup</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Soup</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tuto-w3c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>W3C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tuto-web-tech</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web Technology</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tuto-webservice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WebService</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tuto-wdsl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WSDL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tuto-bootstrap</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tuto-css</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSS3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BootStrap5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Echarts</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tuto-echarts</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tuto-font</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Font Awecome</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tuto-html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tuto-http</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTTP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tuto-sass</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SASS</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -620,15 +759,16 @@
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="13.5"/>
   <cols>
+    <col min="3" max="3" width="28.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="14.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -640,13 +780,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" ht="14.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" ht="14.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -658,7 +798,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" ht="14.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -670,7 +810,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" ht="14.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>27</v>
@@ -682,7 +822,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" ht="14.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -694,7 +834,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" ht="14.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>25</v>
@@ -706,7 +846,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" ht="14.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>26</v>
@@ -718,7 +858,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" ht="14.25">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -730,7 +870,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" ht="14.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>6</v>
@@ -742,7 +882,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" ht="14.25">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -754,7 +894,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" ht="14.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>6</v>
@@ -766,7 +906,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" ht="14.25">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -778,7 +918,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" ht="14.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>33</v>
@@ -790,7 +930,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" ht="14.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>35</v>
@@ -802,7 +942,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" ht="14.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>36</v>
@@ -814,7 +954,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" ht="14.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>37</v>
@@ -826,7 +966,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" ht="14.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
         <v>38</v>
@@ -838,7 +978,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" ht="14.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>39</v>
@@ -850,7 +990,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" ht="14.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>40</v>
@@ -862,7 +1002,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" ht="14.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>41</v>
@@ -874,7 +1014,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" ht="14.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
         <v>42</v>
@@ -886,109 +1026,199 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1"/>
+    <row r="23" spans="1:4" ht="14.25">
+      <c r="A23" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="C23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="14.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="B24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="14.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="B25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="14.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="B26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="14.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="B27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="14.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="B28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="14.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="B29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="14.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="B30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="14.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="B31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="14.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="B32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="14.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="B33" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="14.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="B34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="14.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="B35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="14.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="B36" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="14.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="B37" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="14.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" ht="14.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" ht="14.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>

--- a/database/meta/tutorials_tags.xlsx
+++ b/database/meta/tutorials_tags.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\opt\gitee\TorCMS\database\meta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bukun\AppData\Local\Temp\Mxt220\RemoteFiles\67170_9_0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB08C55-2F72-4B6E-949B-D38E93EBCF39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E9CBCA-9F08-45B2-B7AA-8B3F693F0540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="k-tutorials" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="82">
   <si>
     <t>k</t>
   </si>
@@ -54,42 +54,6 @@
     <t>Introduction</t>
   </si>
   <si>
-    <t>tk2</t>
-  </si>
-  <si>
-    <t>gis-fundation-b</t>
-  </si>
-  <si>
-    <t>Fundation Tutorial of GIS(B)</t>
-  </si>
-  <si>
-    <t>tutorial-spatial-analysis</t>
-  </si>
-  <si>
-    <t>Spatial Analysis</t>
-  </si>
-  <si>
-    <t>tutorial-dtm</t>
-  </si>
-  <si>
-    <t>Digital Terrain Model</t>
-  </si>
-  <si>
-    <t>tk3</t>
-  </si>
-  <si>
-    <t>gis-fundation-c</t>
-  </si>
-  <si>
-    <t>Fundation Tutorial of GIS(C)</t>
-  </si>
-  <si>
-    <t>tutorial-gis-application</t>
-  </si>
-  <si>
-    <t>GIS Application</t>
-  </si>
-  <si>
     <t>tk8</t>
   </si>
   <si>
@@ -100,14 +64,6 @@
   </si>
   <si>
     <t>kpygis1</t>
-  </si>
-  <si>
-    <t>t06</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>t15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>t04</t>
@@ -756,10 +712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="13.5"/>
@@ -813,13 +769,13 @@
     <row r="5" spans="1:4" ht="14.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25">
@@ -837,392 +793,332 @@
     <row r="7" spans="1:4" ht="14.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.25">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="1"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="C9" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.25">
-      <c r="A11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="1"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="C11" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="14.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="14.25">
-      <c r="A13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="14.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="14.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="14.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="14.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="14.25">
-      <c r="A23" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" s="1"/>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="C23" s="1" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="14.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="14.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="14.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="14.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="14.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="14.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="14.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="14.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="14.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="14.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
     </row>
     <row r="34" spans="1:4" ht="14.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>89</v>
-      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
     </row>
     <row r="35" spans="1:4" ht="14.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="14.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="14.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="14.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="1:4" ht="14.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="1:4" ht="14.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
